--- a/paper/openpose_accuracy.xlsx
+++ b/paper/openpose_accuracy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">tot devy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">totStdPx</t>
   </si>
   <si>
     <t xml:space="preserve">img_21</t>
@@ -820,8 +823,8 @@
   </sheetPr>
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE23" activeCellId="0" sqref="AE23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1940,11 +1943,17 @@
       <c r="O21" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="P21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>461</v>
@@ -1974,13 +1983,21 @@
         <f aca="false">AVERAGE(J2:J99)</f>
         <v>-2.64285714285714</v>
       </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">AVERAGE(U4:U17)</f>
+        <v>3.61814029846716</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">AVERAGE(V4:V17)</f>
+        <v>3.49415799089242</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>461</v>
@@ -2006,7 +2023,7 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>461</v>
@@ -2032,7 +2049,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>461</v>
@@ -2058,7 +2075,7 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>461</v>
@@ -2084,7 +2101,7 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>578</v>
@@ -2110,7 +2127,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>565</v>
@@ -2136,7 +2153,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>565</v>
@@ -2164,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>552</v>
@@ -2190,7 +2207,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>552</v>
@@ -2216,7 +2233,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>552</v>
@@ -2242,7 +2259,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>552</v>
@@ -2268,7 +2285,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>552</v>
@@ -2294,7 +2311,7 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>552</v>
@@ -2320,7 +2337,7 @@
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>552</v>
@@ -2348,7 +2365,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>552</v>
@@ -2374,7 +2391,7 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>552</v>
@@ -2400,7 +2417,7 @@
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>552</v>
@@ -2426,7 +2443,7 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>552</v>
@@ -2452,7 +2469,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>552</v>
@@ -2478,7 +2495,7 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>552</v>
@@ -2504,7 +2521,7 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>552</v>
@@ -2532,7 +2549,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>539</v>
@@ -2558,7 +2575,7 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>539</v>
@@ -2584,7 +2601,7 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>539</v>
@@ -2610,7 +2627,7 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>552</v>
@@ -2636,7 +2653,7 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>721</v>
@@ -2662,7 +2679,7 @@
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>695</v>
@@ -2688,7 +2705,7 @@
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>682</v>
@@ -2716,7 +2733,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>318</v>
@@ -2742,7 +2759,7 @@
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
       <c r="B52" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>318</v>
@@ -2765,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q52" s="7" t="n">
         <v>682</v>
@@ -2793,7 +2810,7 @@
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
       <c r="B53" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>318</v>
@@ -2816,7 +2833,7 @@
         <v>3</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q53" s="7" t="n">
         <v>682</v>
@@ -2844,7 +2861,7 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
       <c r="B54" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>318</v>
@@ -2867,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q54" s="7" t="n">
         <v>682</v>
@@ -2895,7 +2912,7 @@
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
       <c r="B55" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>318</v>
@@ -2918,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q55" s="7" t="n">
         <v>682</v>
@@ -2946,7 +2963,7 @@
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
       <c r="B56" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>656</v>
@@ -2987,7 +3004,7 @@
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
       <c r="B57" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>630</v>
@@ -3010,7 +3027,7 @@
         <v>-6</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q57" s="7" t="n">
         <v>500</v>
@@ -3040,7 +3057,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>630</v>
@@ -3063,7 +3080,7 @@
         <v>-4</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q58" s="7" t="n">
         <v>513</v>
@@ -3091,7 +3108,7 @@
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>643</v>
@@ -3114,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q59" s="8" t="n">
         <v>513</v>
@@ -3142,7 +3159,7 @@
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>656</v>
@@ -3165,7 +3182,7 @@
         <v>-7</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q60" s="8" t="n">
         <v>513</v>
@@ -3193,7 +3210,7 @@
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>643</v>
@@ -3216,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q61" s="8" t="n">
         <v>513</v>
@@ -3244,7 +3261,7 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>656</v>
@@ -3267,7 +3284,7 @@
         <v>-7</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q62" s="8" t="n">
         <v>513</v>
@@ -3295,7 +3312,7 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>422</v>
@@ -3336,7 +3353,7 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>435</v>
@@ -3379,7 +3396,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>448</v>
@@ -3420,7 +3437,7 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
       <c r="B66" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>448</v>
@@ -3446,7 +3463,7 @@
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
       <c r="B67" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>448</v>
@@ -3472,7 +3489,7 @@
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="B68" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>448</v>
@@ -3498,7 +3515,7 @@
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
       <c r="B69" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>448</v>
@@ -3524,7 +3541,7 @@
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
       <c r="B70" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>279</v>
@@ -3550,7 +3567,7 @@
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>279</v>
@@ -3578,7 +3595,7 @@
         <v>11</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>279</v>
@@ -3604,7 +3621,7 @@
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>279</v>
@@ -3630,7 +3647,7 @@
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>344</v>
@@ -3656,7 +3673,7 @@
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>344</v>
@@ -3682,7 +3699,7 @@
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>474</v>
@@ -3708,7 +3725,7 @@
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>461</v>
@@ -3734,7 +3751,7 @@
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>448</v>
@@ -3762,7 +3779,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>461</v>
@@ -3788,7 +3805,7 @@
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>461</v>
@@ -3814,7 +3831,7 @@
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="B81" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>435</v>
@@ -3840,7 +3857,7 @@
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
       <c r="B82" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>435</v>
@@ -3866,7 +3883,7 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>435</v>
@@ -3892,7 +3909,7 @@
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="B84" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>435</v>
@@ -3918,7 +3935,7 @@
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
       <c r="B85" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>435</v>
@@ -3946,7 +3963,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>448</v>
@@ -3973,7 +3990,7 @@
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1"/>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>448</v>
@@ -3999,7 +4016,7 @@
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1"/>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>461</v>
@@ -4025,7 +4042,7 @@
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1"/>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>448</v>
@@ -4051,7 +4068,7 @@
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
       <c r="B90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>448</v>
@@ -4077,7 +4094,7 @@
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1"/>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>448</v>
@@ -4103,7 +4120,7 @@
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1"/>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>448</v>
@@ -4131,7 +4148,7 @@
         <v>14</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>448</v>
@@ -4157,7 +4174,7 @@
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1"/>
       <c r="B94" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>448</v>
@@ -4183,7 +4200,7 @@
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
       <c r="B95" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>500</v>
@@ -4209,7 +4226,7 @@
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1"/>
       <c r="B96" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>513</v>
@@ -4235,7 +4252,7 @@
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1"/>
       <c r="B97" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>513</v>
@@ -4261,7 +4278,7 @@
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1"/>
       <c r="B98" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>513</v>
@@ -4287,7 +4304,7 @@
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1"/>
       <c r="B99" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>513</v>
@@ -4312,7 +4329,7 @@
     </row>
     <row r="100" s="2" customFormat="true" ht="13.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>513</v>
@@ -4337,7 +4354,7 @@
     </row>
     <row r="101" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>513</v>
